--- a/biology/Médecine/Fluor_(maladie_professionnelle)/Fluor_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Fluor_(maladie_professionnelle)/Fluor_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une intoxication au fluor soit reconnue comme maladie professionnelle en France.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. 
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -545,25 +563,145 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Données professionnelles
-Du fait de sa capacité à dissoudre les oxydes, l'acide fluorhydrique est un réactif important dans les procédés de purification de l'aluminium et de l'uranium. Il est également utilisé pour attaquer le verre, pour éliminer les oxydes de surface du silicium dans l'industrie des semi-conducteurs, comme catalyseur des réactions d'alkylation de l'isobutane et du butène dans le raffinage du pétrole et pour éliminer des impuretés oxydées de l'acier inoxydable.
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de sa capacité à dissoudre les oxydes, l'acide fluorhydrique est un réactif important dans les procédés de purification de l'aluminium et de l'uranium. Il est également utilisé pour attaquer le verre, pour éliminer les oxydes de surface du silicium dans l'industrie des semi-conducteurs, comme catalyseur des réactions d'alkylation de l'isobutane et du butène dans le raffinage du pétrole et pour éliminer des impuretés oxydées de l'acier inoxydable.
 Il est également utilisé lors de la synthèse de nombreux composés organiques contenant du fluor, parmi lesquels le téflon et les gaz utilisés en réfrigération comme le fréon.
-Données médicales
-Intoxication aigüe
-Ce composé est extrêmement toxique. Dans le corps humain, l'acide fluorhydrique réagit avec les ions calcium et magnésium et provoque leur complexation, ce qui les rend inactifs et les sort donc de leur cycle biologique. Ces ions minéraux ne sont donc plus disponibles pour accomplir leurs rôles biologiques. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fluor_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fluor_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Acide fluorhydrique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Intoxication aigüe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce composé est extrêmement toxique. Dans le corps humain, l'acide fluorhydrique réagit avec les ions calcium et magnésium et provoque leur complexation, ce qui les rend inactifs et les sort donc de leur cycle biologique. Ces ions minéraux ne sont donc plus disponibles pour accomplir leurs rôles biologiques. 
 Il peut endommager les organes dont le bon fonctionnement dépend de ces ions. L'exposition à cet acide n'est pas forcément douloureuse immédiatement. Les symptômes peuvent n'apparaître qu'après plusieurs heures, lorsque l'acide commence à réagir avec le calcium des os. Dans la plupart des cas, l'exposition à l'acide fluorhydrique occasionne des blessures graves, voire mortelles, notamment au cœur, aux reins, aux os et au foie. En cas d'exposition, le traitement initial repose généralement sur l'application d'un gel de gluconate de calcium sur la partie du corps exposée. Si l'exposition est importante ou prolongée, le traitement est basé sur l'injection d'une solution de calcium directement dans une artère ou dans les tissus environnants. Dans tous les cas, une consultation médicale immédiate est nécessaire.
 Même avec un traitement médical immédiat, une exposition à de petites quantités d'acide sur moins de 10 % de la surface du corps peut être fatale. Des solutions très concentrées peuvent entrainer une hypocalcémie aigüe, suivie par une attaque cardiaque mortelle, et sont généralement fatales pour des expositions de l'ordre de 2 % de la surface du corps. L'acide fluorhydrique doit être manipulé avec d'importantes précautions, au-delà de ce qui est nécessaire pour d'autres acides comme l'acide chlorhydrique ou l'acide sulfurique.
-Phrases de risque et conseils de prudence selon l'INRS
-Règles Étiquetage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fluor_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fluor_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Acide fluorhydrique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phrases de risque et conseils de prudence selon l'INRS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Règles Étiquetage
 R 26/27/28 -Très toxique par inhalation, par contact avec la peau et par ingestion.
 R 35 - Provoque de graves brûlures.
 S 7/9 - Conserver le récipient bien fermé et dans un endroit bien ventilé.
 S 26 - En cas de contact avec les yeux, se laver immédiatement et abondamment avec de l’eau et consulter un spécialiste.
 S 36/37/39 - Porter un vêtement de protection approprié, des gants et un appareil de protection des yeux/du visage.
 S 45 - En cas d’accident ou de malaise consulter immédiatement un médecin (si possible lui montrer l’étiquette).
-231-634-8 Etiquetage CE.
-Intoxication chronique
-L'exposition prolongée peut être responsable d'une atteinte osseuse et dentaire.
+231-634-8 Etiquetage CE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fluor_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fluor_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Acide fluorhydrique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Intoxication chronique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exposition prolongée peut être responsable d'une atteinte osseuse et dentaire.
 </t>
         </is>
       </c>
